--- a/graduation-project-be/Material.xlsx
+++ b/graduation-project-be/Material.xlsx
@@ -50,6 +50,129 @@
     <t>Create Date</t>
   </si>
   <si>
+    <t>23537523</t>
+  </si>
+  <si>
+    <t>G990F/128D</t>
+  </si>
+  <si>
+    <t>LCD</t>
+  </si>
+  <si>
+    <t>QUALCOMM</t>
+  </si>
+  <si>
+    <t>23810523</t>
+  </si>
+  <si>
+    <t>Diệu Linh</t>
+  </si>
+  <si>
+    <t>16/06/2023</t>
+  </si>
+  <si>
+    <t>23523023</t>
+  </si>
+  <si>
+    <t>N770F/128D</t>
+  </si>
+  <si>
+    <t>BackGlass</t>
+  </si>
+  <si>
+    <t>MEDIAMART</t>
+  </si>
+  <si>
+    <t>23239223</t>
+  </si>
+  <si>
+    <t>F936B/128D</t>
+  </si>
+  <si>
+    <t>Rear</t>
+  </si>
+  <si>
+    <t>23514623</t>
+  </si>
+  <si>
+    <t>F926B/128D</t>
+  </si>
+  <si>
+    <t>PIN</t>
+  </si>
+  <si>
+    <t>SHANNON</t>
+  </si>
+  <si>
+    <t>23577223</t>
+  </si>
+  <si>
+    <t>S901B/128D</t>
+  </si>
+  <si>
+    <t>FRONT</t>
+  </si>
+  <si>
+    <t>23024323</t>
+  </si>
+  <si>
+    <t>S911B/128D</t>
+  </si>
+  <si>
+    <t>PBA</t>
+  </si>
+  <si>
+    <t>23091823</t>
+  </si>
+  <si>
+    <t>G781B/128D</t>
+  </si>
+  <si>
+    <t>Sub PBA</t>
+  </si>
+  <si>
+    <t>23898023</t>
+  </si>
+  <si>
+    <t>A536B/128D</t>
+  </si>
+  <si>
+    <t>SPK</t>
+  </si>
+  <si>
+    <t>23024823</t>
+  </si>
+  <si>
+    <t>A325F/128D</t>
+  </si>
+  <si>
+    <t>Camera Wide</t>
+  </si>
+  <si>
+    <t>23898123</t>
+  </si>
+  <si>
+    <t>A326B/128D</t>
+  </si>
+  <si>
+    <t>Camera Ultra Wide</t>
+  </si>
+  <si>
+    <t>23961223</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Hải</t>
+  </si>
+  <si>
+    <t>23281523</t>
+  </si>
+  <si>
+    <t>A102U/128D</t>
+  </si>
+  <si>
+    <t>Camera Tele</t>
+  </si>
+  <si>
     <t>23996323</t>
   </si>
   <si>
@@ -62,25 +185,76 @@
     <t>SAMSUNG</t>
   </si>
   <si>
-    <t>23961223</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn Hải</t>
-  </si>
-  <si>
-    <t>16/06/2023</t>
-  </si>
-  <si>
-    <t>23281523</t>
-  </si>
-  <si>
-    <t>A102U/128D</t>
-  </si>
-  <si>
-    <t>Camera Tele</t>
-  </si>
-  <si>
-    <t>MEDIAMART</t>
+    <t>23581923</t>
+  </si>
+  <si>
+    <t>S906B/128D</t>
+  </si>
+  <si>
+    <t>Front Camera</t>
+  </si>
+  <si>
+    <t>23065523</t>
+  </si>
+  <si>
+    <t>S918B/128D</t>
+  </si>
+  <si>
+    <t>Camera Macro</t>
+  </si>
+  <si>
+    <t>23860723</t>
+  </si>
+  <si>
+    <t>S916B/128D</t>
+  </si>
+  <si>
+    <t>Motor</t>
+  </si>
+  <si>
+    <t>23217423</t>
+  </si>
+  <si>
+    <t>A730B/128D</t>
+  </si>
+  <si>
+    <t>Ant 5G</t>
+  </si>
+  <si>
+    <t>23634723</t>
+  </si>
+  <si>
+    <t>A736B/128D</t>
+  </si>
+  <si>
+    <t>Power Key</t>
+  </si>
+  <si>
+    <t>23329423</t>
+  </si>
+  <si>
+    <t>A336B/128D</t>
+  </si>
+  <si>
+    <t>Wifi</t>
+  </si>
+  <si>
+    <t>23612323</t>
+  </si>
+  <si>
+    <t>M336B/128D</t>
+  </si>
+  <si>
+    <t>USB-C</t>
+  </si>
+  <si>
+    <t>23098923</t>
+  </si>
+  <si>
+    <t>M236B/128D</t>
+  </si>
+  <si>
+    <t>GPS</t>
   </si>
   <si>
     <t>22123456</t>
@@ -89,181 +263,7 @@
     <t>G991B/128D</t>
   </si>
   <si>
-    <t>BackGlass</t>
-  </si>
-  <si>
-    <t>QUALCOMM</t>
-  </si>
-  <si>
-    <t>23810523</t>
-  </si>
-  <si>
-    <t>Diệu Linh</t>
-  </si>
-  <si>
     <t>18/06/2023</t>
-  </si>
-  <si>
-    <t>23098923</t>
-  </si>
-  <si>
-    <t>M236B/128D</t>
-  </si>
-  <si>
-    <t>GPS</t>
-  </si>
-  <si>
-    <t>23612323</t>
-  </si>
-  <si>
-    <t>M336B/128D</t>
-  </si>
-  <si>
-    <t>USB-C</t>
-  </si>
-  <si>
-    <t>23329423</t>
-  </si>
-  <si>
-    <t>A336B/128D</t>
-  </si>
-  <si>
-    <t>Wifi</t>
-  </si>
-  <si>
-    <t>23634723</t>
-  </si>
-  <si>
-    <t>A736B/128D</t>
-  </si>
-  <si>
-    <t>Power Key</t>
-  </si>
-  <si>
-    <t>23217423</t>
-  </si>
-  <si>
-    <t>A730B/128D</t>
-  </si>
-  <si>
-    <t>Ant 5G</t>
-  </si>
-  <si>
-    <t>23860723</t>
-  </si>
-  <si>
-    <t>S916B/128D</t>
-  </si>
-  <si>
-    <t>Motor</t>
-  </si>
-  <si>
-    <t>23065523</t>
-  </si>
-  <si>
-    <t>S918B/128D</t>
-  </si>
-  <si>
-    <t>Camera Macro</t>
-  </si>
-  <si>
-    <t>23581923</t>
-  </si>
-  <si>
-    <t>S906B/128D</t>
-  </si>
-  <si>
-    <t>Front Camera</t>
-  </si>
-  <si>
-    <t>23898123</t>
-  </si>
-  <si>
-    <t>A326B/128D</t>
-  </si>
-  <si>
-    <t>Camera Ultra Wide</t>
-  </si>
-  <si>
-    <t>SHANNON</t>
-  </si>
-  <si>
-    <t>23024823</t>
-  </si>
-  <si>
-    <t>A325F/128D</t>
-  </si>
-  <si>
-    <t>Camera Wide</t>
-  </si>
-  <si>
-    <t>23898023</t>
-  </si>
-  <si>
-    <t>A536B/128D</t>
-  </si>
-  <si>
-    <t>SPK</t>
-  </si>
-  <si>
-    <t>23091823</t>
-  </si>
-  <si>
-    <t>G781B/128D</t>
-  </si>
-  <si>
-    <t>Sub PBA</t>
-  </si>
-  <si>
-    <t>23024323</t>
-  </si>
-  <si>
-    <t>S911B/128D</t>
-  </si>
-  <si>
-    <t>PBA</t>
-  </si>
-  <si>
-    <t>23577223</t>
-  </si>
-  <si>
-    <t>S901B/128D</t>
-  </si>
-  <si>
-    <t>FRONT</t>
-  </si>
-  <si>
-    <t>23239223</t>
-  </si>
-  <si>
-    <t>F936B/128D</t>
-  </si>
-  <si>
-    <t>Rear</t>
-  </si>
-  <si>
-    <t>23523023</t>
-  </si>
-  <si>
-    <t>N770F/128D</t>
-  </si>
-  <si>
-    <t>23514623</t>
-  </si>
-  <si>
-    <t>F926B/128D</t>
-  </si>
-  <si>
-    <t>PIN</t>
-  </si>
-  <si>
-    <t>23537523</t>
-  </si>
-  <si>
-    <t>G990F/128D</t>
-  </si>
-  <si>
-    <t>LCD</t>
   </si>
 </sst>
 </file>
@@ -368,7 +368,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
@@ -380,10 +380,10 @@
         <v>200.0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="F2" t="n">
-        <v>200.0</v>
+        <v>190.0</v>
       </c>
       <c r="G2" t="n">
         <v>100000.0</v>
@@ -406,7 +406,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>11.0</v>
+        <v>2.0</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -415,13 +415,13 @@
         <v>20</v>
       </c>
       <c r="D3" t="n">
-        <v>111.0</v>
+        <v>100.0</v>
       </c>
       <c r="E3" t="n">
         <v>0.0</v>
       </c>
       <c r="F3" t="n">
-        <v>111.0</v>
+        <v>100.0</v>
       </c>
       <c r="G3" t="n">
         <v>100000.0</v>
@@ -444,7 +444,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>21.0</v>
+        <v>3.0</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -462,51 +462,51 @@
         <v>100.0</v>
       </c>
       <c r="G4" t="n">
-        <v>20000.0</v>
+        <v>100000.0</v>
       </c>
       <c r="H4" t="s">
         <v>25</v>
       </c>
       <c r="I4" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="J4" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="K4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="L4" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>20.0</v>
+        <v>4.0</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D5" t="n">
-        <v>100.0</v>
+        <v>101.0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="F5" t="n">
-        <v>100.0</v>
+        <v>91.0</v>
       </c>
       <c r="G5" t="n">
         <v>100000.0</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I5" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="J5" t="s">
         <v>16</v>
@@ -520,13 +520,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>19.0</v>
+        <v>5.0</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D6" t="n">
         <v>100.0</v>
@@ -541,10 +541,10 @@
         <v>100000.0</v>
       </c>
       <c r="H6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="J6" t="s">
         <v>16</v>
@@ -558,13 +558,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>18.0</v>
+        <v>6.0</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D7" t="n">
         <v>100.0</v>
@@ -579,10 +579,10 @@
         <v>100000.0</v>
       </c>
       <c r="H7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I7" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="J7" t="s">
         <v>16</v>
@@ -596,13 +596,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>17.0</v>
+        <v>7.0</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D8" t="n">
         <v>100.0</v>
@@ -617,7 +617,7 @@
         <v>100000.0</v>
       </c>
       <c r="H8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I8" t="s">
         <v>22</v>
@@ -634,13 +634,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>16.0</v>
+        <v>8.0</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D9" t="n">
         <v>100.0</v>
@@ -655,7 +655,7 @@
         <v>100000.0</v>
       </c>
       <c r="H9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I9" t="s">
         <v>22</v>
@@ -672,13 +672,13 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>15.0</v>
+        <v>9.0</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D10" t="n">
         <v>100.0</v>
@@ -693,10 +693,10 @@
         <v>100000.0</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I10" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="J10" t="s">
         <v>16</v>
@@ -710,37 +710,37 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>14.0</v>
+        <v>10.0</v>
       </c>
       <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>100000.0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" t="s">
         <v>48</v>
       </c>
-      <c r="C11" t="s">
+      <c r="K11" t="s">
         <v>49</v>
-      </c>
-      <c r="D11" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>100000.0</v>
-      </c>
-      <c r="H11" t="s">
-        <v>50</v>
-      </c>
-      <c r="I11" t="s">
-        <v>22</v>
-      </c>
-      <c r="J11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K11" t="s">
-        <v>17</v>
       </c>
       <c r="L11" t="s">
         <v>18</v>
@@ -748,37 +748,37 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>13.0</v>
+        <v>11.0</v>
       </c>
       <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s">
         <v>51</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="n">
+        <v>111.0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>111.0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>100000.0</v>
+      </c>
+      <c r="H12" t="s">
         <v>52</v>
-      </c>
-      <c r="D12" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>100000.0</v>
-      </c>
-      <c r="H12" t="s">
-        <v>53</v>
       </c>
       <c r="I12" t="s">
         <v>22</v>
       </c>
       <c r="J12" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="K12" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="L12" t="s">
         <v>18</v>
@@ -786,37 +786,37 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="B13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" t="s">
         <v>54</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>100000.0</v>
+      </c>
+      <c r="H13" t="s">
         <v>55</v>
       </c>
-      <c r="D13" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>100000.0</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>56</v>
       </c>
-      <c r="I13" t="s">
-        <v>57</v>
-      </c>
       <c r="J13" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="K13" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="L13" t="s">
         <v>18</v>
@@ -824,37 +824,37 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>9.0</v>
+        <v>13.0</v>
       </c>
       <c r="B14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" t="s">
         <v>58</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>100000.0</v>
+      </c>
+      <c r="H14" t="s">
         <v>59</v>
       </c>
-      <c r="D14" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>100000.0</v>
-      </c>
-      <c r="H14" t="s">
-        <v>60</v>
-      </c>
       <c r="I14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J14" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="K14" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="L14" t="s">
         <v>18</v>
@@ -862,37 +862,37 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="B15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" t="s">
         <v>61</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>100000.0</v>
+      </c>
+      <c r="H15" t="s">
         <v>62</v>
-      </c>
-      <c r="D15" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>100000.0</v>
-      </c>
-      <c r="H15" t="s">
-        <v>63</v>
       </c>
       <c r="I15" t="s">
         <v>22</v>
       </c>
       <c r="J15" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="K15" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="L15" t="s">
         <v>18</v>
@@ -900,37 +900,37 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>7.0</v>
+        <v>15.0</v>
       </c>
       <c r="B16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" t="s">
         <v>64</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>100000.0</v>
+      </c>
+      <c r="H16" t="s">
         <v>65</v>
       </c>
-      <c r="D16" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>100000.0</v>
-      </c>
-      <c r="H16" t="s">
-        <v>66</v>
-      </c>
       <c r="I16" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="J16" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="K16" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="L16" t="s">
         <v>18</v>
@@ -938,37 +938,37 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6.0</v>
+        <v>16.0</v>
       </c>
       <c r="B17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" t="s">
         <v>67</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>100000.0</v>
+      </c>
+      <c r="H17" t="s">
         <v>68</v>
       </c>
-      <c r="D17" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>100000.0</v>
-      </c>
-      <c r="H17" t="s">
-        <v>69</v>
-      </c>
       <c r="I17" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="J17" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="K17" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="L17" t="s">
         <v>18</v>
@@ -976,37 +976,37 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5.0</v>
+        <v>17.0</v>
       </c>
       <c r="B18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" t="s">
         <v>70</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>100000.0</v>
+      </c>
+      <c r="H18" t="s">
         <v>71</v>
       </c>
-      <c r="D18" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>100000.0</v>
-      </c>
-      <c r="H18" t="s">
-        <v>72</v>
-      </c>
       <c r="I18" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="J18" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="K18" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="L18" t="s">
         <v>18</v>
@@ -1014,37 +1014,37 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3.0</v>
+        <v>18.0</v>
       </c>
       <c r="B19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" t="s">
         <v>73</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>100000.0</v>
+      </c>
+      <c r="H19" t="s">
         <v>74</v>
       </c>
-      <c r="D19" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>100000.0</v>
-      </c>
-      <c r="H19" t="s">
-        <v>75</v>
-      </c>
       <c r="I19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J19" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="K19" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="L19" t="s">
         <v>18</v>
@@ -1052,37 +1052,37 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2.0</v>
+        <v>19.0</v>
       </c>
       <c r="B20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" t="s">
         <v>76</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>100000.0</v>
+      </c>
+      <c r="H20" t="s">
         <v>77</v>
-      </c>
-      <c r="D20" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>100000.0</v>
-      </c>
-      <c r="H20" t="s">
-        <v>25</v>
       </c>
       <c r="I20" t="s">
         <v>22</v>
       </c>
       <c r="J20" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="K20" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="L20" t="s">
         <v>18</v>
@@ -1090,7 +1090,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4.0</v>
+        <v>20.0</v>
       </c>
       <c r="B21" t="s">
         <v>78</v>
@@ -1102,10 +1102,10 @@
         <v>100.0</v>
       </c>
       <c r="E21" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="F21" t="n">
-        <v>90.0</v>
+        <v>100.0</v>
       </c>
       <c r="G21" t="n">
         <v>100000.0</v>
@@ -1114,13 +1114,13 @@
         <v>80</v>
       </c>
       <c r="I21" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="J21" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="K21" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="L21" t="s">
         <v>18</v>
@@ -1128,7 +1128,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1.0</v>
+        <v>21.0</v>
       </c>
       <c r="B22" t="s">
         <v>81</v>
@@ -1140,28 +1140,28 @@
         <v>100.0</v>
       </c>
       <c r="E22" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="F22" t="n">
-        <v>90.0</v>
+        <v>100.0</v>
       </c>
       <c r="G22" t="n">
-        <v>100000.0</v>
+        <v>20000.0</v>
       </c>
       <c r="H22" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" t="s">
         <v>83</v>
-      </c>
-      <c r="I22" t="s">
-        <v>26</v>
-      </c>
-      <c r="J22" t="s">
-        <v>27</v>
-      </c>
-      <c r="K22" t="s">
-        <v>28</v>
-      </c>
-      <c r="L22" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
